--- a/黄书园/第三周/测试用例.xlsx
+++ b/黄书园/第三周/测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangshuyuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangshuyuan\Desktop\github\The-Second-Practical-Training\黄书园\第三周\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A79AE-5723-4638-835C-F631214CF079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F297-B613-4727-9B93-3E8598489F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试菜品信息跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试“做饭”页面跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,18 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试主页搜索功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试“爱吃”页面跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试“爱吃”菜品信息跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试“我的”页面跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在做饭分区内点击菜品查看详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在添加页面输入物品名称，保质期，点击确认添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击“爱吃”页面菜品，查看详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳转至设置页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +304,10 @@
   </si>
   <si>
     <t>跳转至我的心得页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试主页搜索功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24D4CE75-2E51-4925-9AF2-0A18AB801CEA}" name="表1" displayName="表1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F23" xr:uid="{E57AD0B5-5DCE-4477-9926-E6A7ED9946A1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24D4CE75-2E51-4925-9AF2-0A18AB801CEA}" name="表1" displayName="表1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{E57AD0B5-5DCE-4477-9926-E6A7ED9946A1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -427,8 +411,8 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7F28D220-C5A1-4161-809D-6B7E2CE3C024}" name="序号" dataDxfId="5"/>
@@ -705,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -748,16 +732,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,13 +752,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -786,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -804,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -822,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,19 +823,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -880,13 +864,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -898,13 +882,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -916,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -931,16 +915,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -949,16 +933,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -970,13 +954,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -985,16 +969,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1003,16 +987,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -1021,16 +1005,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -1039,16 +1023,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -1057,16 +1041,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1075,74 +1059,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
